--- a/UnidadI/AnalisisYoutube.xlsx
+++ b/UnidadI/AnalisisYoutube.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-II\RepositorioEjercicios\UnidadI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-II\RepositorioEjercicios\IS501-II2018\UnidadI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8F8FF8-9E1E-4283-8656-695D1E290043}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50BD7A35-3EF7-4ADE-9D55-AFDAEAECCA51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8025" xr2:uid="{F960FD7F-ACE6-4209-8276-878074B9528B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Nombre del video</t>
   </si>
@@ -36,18 +36,12 @@
     <t>Tamaño</t>
   </si>
   <si>
-    <t>Formato</t>
-  </si>
-  <si>
     <t>Duracion</t>
   </si>
   <si>
     <t>Puntuacion</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
     <t>Vistas</t>
   </si>
   <si>
@@ -102,18 +96,6 @@
     <t>mkv</t>
   </si>
   <si>
-    <t>Musica, Para Adultos</t>
-  </si>
-  <si>
-    <t>Novelas, Entretenimiento</t>
-  </si>
-  <si>
-    <t>Tecnologia, Bases de Datos</t>
-  </si>
-  <si>
-    <t>Que buena rola, Si ombe!!!!!, Vagos, escuchen mejor Bethoven</t>
-  </si>
-  <si>
     <t>Ya quiero ver el otro capitulo</t>
   </si>
   <si>
@@ -129,12 +111,6 @@
     <t>HQ</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Pura queso, Solo buenas rolas</t>
   </si>
   <si>
@@ -153,9 +129,6 @@
     <t>Normas: Intentar que toda tabla tenga una llave primaria</t>
   </si>
   <si>
-    <t>Anomalías:  Integridad y consistencia</t>
-  </si>
-  <si>
     <t>Videos</t>
   </si>
   <si>
@@ -226,6 +199,93 @@
   </si>
   <si>
     <t>La gasolina</t>
+  </si>
+  <si>
+    <t>Anomalías:  Integridad y consistencia, Redundancia</t>
+  </si>
+  <si>
+    <t>Formatos</t>
+  </si>
+  <si>
+    <t>Codigo Formato</t>
+  </si>
+  <si>
+    <t>Nombre Formato</t>
+  </si>
+  <si>
+    <t>Siglas</t>
+  </si>
+  <si>
+    <t>Lorem ipsum</t>
+  </si>
+  <si>
+    <t>avi</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Codigo Calidad</t>
+  </si>
+  <si>
+    <t>High Definition</t>
+  </si>
+  <si>
+    <t>High Quality</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Codigo Categoria</t>
+  </si>
+  <si>
+    <t>Nombre Categoria</t>
+  </si>
+  <si>
+    <t>Para Adultos</t>
+  </si>
+  <si>
+    <t>Musica</t>
+  </si>
+  <si>
+    <t>Novelas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entretenimiento</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Bases de Datos</t>
+  </si>
+  <si>
+    <t>Categorias por videos</t>
+  </si>
+  <si>
+    <t>Codigo Comentario</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Fecha comentario</t>
+  </si>
+  <si>
+    <t>Que buena rola</t>
+  </si>
+  <si>
+    <t>Si ombe!!!!!</t>
+  </si>
+  <si>
+    <t>Vagos, escuchen mejor Bethoven</t>
   </si>
 </sst>
 </file>
@@ -257,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -423,6 +483,182 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -430,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -449,6 +685,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -764,41 +1019,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB269C-9DF7-4E42-8884-6F102A8A1AB1}">
-  <dimension ref="A3:Q27"/>
+  <dimension ref="A3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
@@ -807,28 +1060,28 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>9</v>
@@ -839,25 +1092,19 @@
       <c r="N4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="O4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -865,8 +1112,8 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
+      <c r="F5" s="3">
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>10</v>
@@ -874,43 +1121,37 @@
       <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
+      <c r="I5" s="3">
+        <v>666</v>
       </c>
       <c r="J5" s="3">
         <v>666</v>
       </c>
       <c r="K5" s="3">
-        <v>666</v>
-      </c>
-      <c r="L5" s="3">
         <v>111</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="L5" s="4">
         <v>41255</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -918,8 +1159,8 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
+      <c r="F6" s="1">
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>15</v>
@@ -927,43 +1168,37 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
+      <c r="I6" s="1">
+        <v>666</v>
       </c>
       <c r="J6" s="1">
-        <v>666</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1">
-        <v>66</v>
-      </c>
-      <c r="L6" s="1">
         <v>111</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="L6" s="2">
         <v>41255</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -971,8 +1206,8 @@
       <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>65</v>
@@ -980,43 +1215,37 @@
       <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
+      <c r="I7" s="1">
+        <v>77</v>
       </c>
       <c r="J7" s="1">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1">
-        <v>66</v>
-      </c>
-      <c r="L7" s="1">
         <v>44</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="L7" s="2">
         <v>41255</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="15">
         <v>3</v>
@@ -1024,8 +1253,8 @@
       <c r="E8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>23</v>
+      <c r="F8" s="15">
+        <v>1</v>
       </c>
       <c r="G8" s="15">
         <v>54</v>
@@ -1033,45 +1262,41 @@
       <c r="H8" s="15">
         <v>1</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>27</v>
+      <c r="I8" s="15">
+        <v>77</v>
       </c>
       <c r="J8" s="15">
-        <v>77</v>
+        <v>666</v>
       </c>
       <c r="K8" s="15">
-        <v>666</v>
-      </c>
-      <c r="L8" s="15">
         <v>44</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="L8" s="16">
         <v>41255</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="15">
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1080,143 +1305,313 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="H16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="1">
         <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>41255</v>
+      </c>
+      <c r="P17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="21">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>41255</v>
+      </c>
+      <c r="P18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1">
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="23">
+        <v>3</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="21">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>41255</v>
+      </c>
+      <c r="P19" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="21">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>41255</v>
+      </c>
+      <c r="P20" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="33">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>41255</v>
+      </c>
+      <c r="P21" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="34">
+        <v>6</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="35">
+        <v>1</v>
+      </c>
+      <c r="O22" s="36">
+        <v>41255</v>
+      </c>
+      <c r="P22" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>41255</v>
@@ -1227,13 +1622,22 @@
       <c r="E24" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="23">
+        <v>2</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2">
         <v>41255</v>
@@ -1245,12 +1649,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
         <v>41255</v>
@@ -1262,12 +1666,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2">
         <v>41255</v>
@@ -1277,6 +1681,136 @@
       </c>
       <c r="E27" s="1">
         <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
+        <v>1</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>2</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
+        <v>3</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="21">
+        <v>2</v>
+      </c>
+      <c r="H34" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
+        <v>4</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="21">
+        <v>2</v>
+      </c>
+      <c r="H35" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="21">
+        <v>5</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="21">
+        <v>3</v>
+      </c>
+      <c r="H36" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23">
+        <v>6</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="21">
+        <v>3</v>
+      </c>
+      <c r="H37" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="21">
+        <v>4</v>
+      </c>
+      <c r="H38" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="21">
+        <v>4</v>
+      </c>
+      <c r="H39" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="23">
+        <v>5</v>
+      </c>
+      <c r="H40" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UnidadI/AnalisisYoutube.xlsx
+++ b/UnidadI/AnalisisYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-II\RepositorioEjercicios\IS501-II2018\UnidadI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50BD7A35-3EF7-4ADE-9D55-AFDAEAECCA51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE521BFA-D58E-4F5D-9588-52B29279FF84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8025" xr2:uid="{F960FD7F-ACE6-4209-8276-878074B9528B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Nombre del video</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Fecha subida</t>
   </si>
   <si>
-    <t>Calidad/Resolucion</t>
-  </si>
-  <si>
     <t>Subtitulos</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Vagos, escuchen mejor Bethoven</t>
+  </si>
+  <si>
+    <t>fecha_agrego</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB269C-9DF7-4E42-8884-6F102A8A1AB1}">
   <dimension ref="A3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,12 +1046,12 @@
   <sheetData>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>3</v>
@@ -1087,13 +1087,13 @@
         <v>9</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -1148,10 +1148,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
@@ -1195,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" s="1">
         <v>3</v>
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="15">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" s="15">
         <v>4</v>
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1311,25 +1311,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
         <v>8</v>
@@ -1337,49 +1337,49 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" t="s">
         <v>40</v>
       </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
       <c r="H16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="J16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="L16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="N16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="P16" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1387,34 +1387,34 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1">
         <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="21">
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -1431,34 +1431,34 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="21">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="21">
         <v>2</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -1475,34 +1475,34 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1">
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="23">
         <v>3</v>
       </c>
       <c r="I19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="L19" s="21">
         <v>3</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="33">
         <v>5</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" s="17">
         <v>1</v>
@@ -1553,22 +1553,22 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" s="34">
         <v>6</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22" s="35">
         <v>1</v>
@@ -1582,28 +1582,28 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H23" s="21">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <v>41255</v>
@@ -1626,10 +1626,10 @@
         <v>2</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
         <v>41255</v>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
         <v>41255</v>
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2">
         <v>41255</v>
@@ -1685,24 +1685,27 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>73</v>
-      </c>
       <c r="G31" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="I31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1710,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="21">
         <v>1</v>
@@ -1724,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="21">
         <v>1</v>
@@ -1738,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" s="21">
         <v>2</v>
@@ -1752,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="21">
         <v>2</v>
@@ -1766,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" s="21">
         <v>3</v>
@@ -1780,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="21">
         <v>3</v>

--- a/UnidadI/AnalisisYoutube.xlsx
+++ b/UnidadI/AnalisisYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-II\RepositorioEjercicios\IS501-II2018\UnidadI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE521BFA-D58E-4F5D-9588-52B29279FF84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D7E68F0-471B-498A-92BD-A66B85B7499A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8025" xr2:uid="{F960FD7F-ACE6-4209-8276-878074B9528B}"/>
   </bookViews>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB269C-9DF7-4E42-8884-6F102A8A1AB1}">
   <dimension ref="A3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UnidadI/AnalisisYoutube.xlsx
+++ b/UnidadI/AnalisisYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-II\RepositorioEjercicios\IS501-II2018\UnidadI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D7E68F0-471B-498A-92BD-A66B85B7499A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1B25243-3EE3-44DF-9AC3-3B1DEAC634F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8025" xr2:uid="{F960FD7F-ACE6-4209-8276-878074B9528B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="176">
   <si>
     <t>Nombre del video</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Que tutarial mas basura!!!</t>
   </si>
   <si>
-    <t>Que otro rollo de tutorial, Si, definitivamente aprendi mucho</t>
-  </si>
-  <si>
     <t>HD</t>
   </si>
   <si>
@@ -286,13 +283,283 @@
   </si>
   <si>
     <t>fecha_agrego</t>
+  </si>
+  <si>
+    <t>Canales</t>
+  </si>
+  <si>
+    <t>Codigo canal</t>
+  </si>
+  <si>
+    <t>Videos chistosos</t>
+  </si>
+  <si>
+    <t>Videos de cocina</t>
+  </si>
+  <si>
+    <t>Veanme dormir</t>
+  </si>
+  <si>
+    <t>Listas</t>
+  </si>
+  <si>
+    <t>Codigo Lista</t>
+  </si>
+  <si>
+    <t>Codigo Canal</t>
+  </si>
+  <si>
+    <t>Videos que me gustan de bachata</t>
+  </si>
+  <si>
+    <t>Videos que me gustan de perritos</t>
+  </si>
+  <si>
+    <t>Mil formas de hacer sopas instantaneas</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Garmendia</t>
+  </si>
+  <si>
+    <t>HolaSoyGerman</t>
+  </si>
+  <si>
+    <t>Ancud</t>
+  </si>
+  <si>
+    <t>Listas canales</t>
+  </si>
+  <si>
+    <t>Listas Usuarios</t>
+  </si>
+  <si>
+    <t>Paises</t>
+  </si>
+  <si>
+    <t>Departamentos</t>
+  </si>
+  <si>
+    <t>Municipios</t>
+  </si>
+  <si>
+    <t>Codigo Municipio</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Codigo Departamento</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codigo Pais </t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Codigo Pais</t>
+  </si>
+  <si>
+    <t>Codigo Departmento</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Francisco Morazan</t>
+  </si>
+  <si>
+    <t>Intibuca</t>
+  </si>
+  <si>
+    <t>Antigua Guatemala</t>
+  </si>
+  <si>
+    <t>Sabana Grande</t>
+  </si>
+  <si>
+    <t>Valle de Angeles</t>
+  </si>
+  <si>
+    <t>La Esperanza</t>
+  </si>
+  <si>
+    <t>Chiquimula</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Lugares</t>
+  </si>
+  <si>
+    <t>Codigo Lugar</t>
+  </si>
+  <si>
+    <t>Nombre Lugar</t>
+  </si>
+  <si>
+    <t>Tipo Lugar</t>
+  </si>
+  <si>
+    <t>Tipos de Lugares</t>
+  </si>
+  <si>
+    <t>Codigo Tipo Lugar</t>
+  </si>
+  <si>
+    <t>Codigo Lugar Padre</t>
+  </si>
+  <si>
+    <t>Regiones</t>
+  </si>
+  <si>
+    <t>Centroamerica</t>
+  </si>
+  <si>
+    <t>Restricciones x Municipio</t>
+  </si>
+  <si>
+    <t>Restricciones por lugar</t>
+  </si>
+  <si>
+    <t>Comentario Padre</t>
+  </si>
+  <si>
+    <t>Suraaaa vos!!!!!! Prro</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>Codigo Empleado</t>
+  </si>
+  <si>
+    <t>Codigo Tipo Empleado</t>
+  </si>
+  <si>
+    <t>Codigo Empleado Superior</t>
+  </si>
+  <si>
+    <t>Tipo Empleado</t>
+  </si>
+  <si>
+    <t>Codigo tipo Empleado</t>
+  </si>
+  <si>
+    <t>Tipos empleados</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>Decano</t>
+  </si>
+  <si>
+    <t>Jefe</t>
+  </si>
+  <si>
+    <t>Coordinador</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Docente por hora</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar </t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime </t>
+  </si>
+  <si>
+    <t>Galeas</t>
+  </si>
+  <si>
+    <t>Codigo Asignatura</t>
+  </si>
+  <si>
+    <t>Nombre Asignatura</t>
+  </si>
+  <si>
+    <t>MM110</t>
+  </si>
+  <si>
+    <t>MM111</t>
+  </si>
+  <si>
+    <t>Calculo</t>
+  </si>
+  <si>
+    <t>Asignaturas</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Codigo Requisito</t>
+  </si>
+  <si>
+    <t>Codigo Carrera</t>
+  </si>
+  <si>
+    <t>Reacciones</t>
+  </si>
+  <si>
+    <t>Codigo Reaccion</t>
+  </si>
+  <si>
+    <t>Tipos Reacciones</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Dislike</t>
+  </si>
+  <si>
+    <t>Me encanta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,16 +575,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -661,12 +942,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -698,12 +1055,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1019,17 +1385,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB269C-9DF7-4E42-8884-6F102A8A1AB1}">
-  <dimension ref="A3:P40"/>
+  <dimension ref="A3:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="H64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1037,21 +1403,20 @@
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
@@ -1060,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>3</v>
@@ -1087,16 +1452,16 @@
         <v>9</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1125,7 +1490,7 @@
         <v>666</v>
       </c>
       <c r="J5" s="3">
-        <v>666</v>
+        <v>3</v>
       </c>
       <c r="K5" s="3">
         <v>111</v>
@@ -1137,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1172,7 +1537,7 @@
         <v>666</v>
       </c>
       <c r="J6" s="1">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
         <v>111</v>
@@ -1184,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1218,9 +1583,7 @@
       <c r="I7" s="1">
         <v>77</v>
       </c>
-      <c r="J7" s="1">
-        <v>66</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1">
         <v>44</v>
       </c>
@@ -1231,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -1265,9 +1628,7 @@
       <c r="I8" s="15">
         <v>77</v>
       </c>
-      <c r="J8" s="15">
-        <v>666</v>
-      </c>
+      <c r="J8" s="15"/>
       <c r="K8" s="15">
         <v>44</v>
       </c>
@@ -1278,18 +1639,18 @@
         <v>1</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1309,80 +1670,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
       </c>
       <c r="L15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" t="s">
         <v>39</v>
       </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
       <c r="H16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="J16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="L16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="N16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="N16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P16" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1390,22 +1754,22 @@
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
         <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>20</v>
@@ -1414,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -1422,11 +1786,12 @@
       <c r="O17" s="2">
         <v>41255</v>
       </c>
-      <c r="P17" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1434,22 +1799,22 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="21">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>21</v>
@@ -1458,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -1466,11 +1831,14 @@
       <c r="O18" s="2">
         <v>41255</v>
       </c>
-      <c r="P18" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1478,31 +1846,31 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="23">
         <v>3</v>
       </c>
       <c r="I19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="L19" s="21">
         <v>3</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -1510,11 +1878,29 @@
       <c r="O19" s="2">
         <v>41255</v>
       </c>
-      <c r="P19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>5</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="35">
+        <v>33</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="L20" s="21">
         <v>4</v>
       </c>
@@ -1527,15 +1913,16 @@
       <c r="O20" s="2">
         <v>41255</v>
       </c>
-      <c r="P20" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="33">
+        <v>63</v>
+      </c>
+      <c r="L21" s="31">
         <v>5</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -1547,71 +1934,75 @@
       <c r="O21" s="2">
         <v>41255</v>
       </c>
-      <c r="P21" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="32">
+        <v>6</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="N22" s="33">
+        <v>1</v>
+      </c>
+      <c r="O22" s="34">
+        <v>41255</v>
+      </c>
+      <c r="P22" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="34">
-        <v>6</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="35">
-        <v>1</v>
-      </c>
-      <c r="O22" s="36">
-        <v>41255</v>
-      </c>
-      <c r="P22" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="21">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>41255</v>
@@ -1626,18 +2017,18 @@
         <v>2</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
         <v>41255</v>
@@ -1648,13 +2039,21 @@
       <c r="E25" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
         <v>41255</v>
@@ -1665,13 +2064,21 @@
       <c r="E26" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
         <v>41255</v>
@@ -1682,52 +2089,126 @@
       <c r="E27" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="45">
+        <v>1</v>
+      </c>
+      <c r="R29" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="45">
+        <v>2</v>
+      </c>
+      <c r="R30" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>72</v>
-      </c>
       <c r="G31" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45">
+        <v>3</v>
+      </c>
+      <c r="R31" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22">
+        <v>1</v>
+      </c>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="45">
+        <v>4</v>
+      </c>
+      <c r="R32" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>2</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="G32" s="21">
-        <v>1</v>
-      </c>
-      <c r="H32" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="21">
-        <v>2</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="G33" s="21">
         <v>1</v>
@@ -1735,13 +2216,25 @@
       <c r="H33" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="45">
+        <v>5</v>
+      </c>
+      <c r="R33" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="21">
         <v>3</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="21">
         <v>2</v>
@@ -1749,13 +2242,25 @@
       <c r="H34" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="45">
+        <v>6</v>
+      </c>
+      <c r="R34" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="21">
         <v>4</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="21">
         <v>2</v>
@@ -1763,13 +2268,21 @@
       <c r="H35" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
         <v>5</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" s="21">
         <v>3</v>
@@ -1777,13 +2290,23 @@
       <c r="H36" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="44"/>
+      <c r="N36" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23">
         <v>6</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="21">
         <v>3</v>
@@ -1791,29 +2314,1115 @@
       <c r="H37" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M37" s="44"/>
+      <c r="N37" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="S37" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="T37" s="44"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G38" s="21">
         <v>4</v>
       </c>
       <c r="H38" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M38" s="44"/>
+      <c r="N38" s="45">
+        <v>1</v>
+      </c>
+      <c r="O38" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="P38" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45">
+        <v>1</v>
+      </c>
+      <c r="S38" s="45"/>
+      <c r="T38" s="44"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G39" s="21">
         <v>4</v>
       </c>
       <c r="H39" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="44"/>
+      <c r="N39" s="45">
+        <v>2</v>
+      </c>
+      <c r="O39" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="P39" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45">
+        <v>2</v>
+      </c>
+      <c r="S39" s="45">
+        <v>1</v>
+      </c>
+      <c r="T39" s="44"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="23">
         <v>5</v>
       </c>
       <c r="H40" s="25">
         <v>1</v>
+      </c>
+      <c r="M40" s="44"/>
+      <c r="N40" s="45">
+        <v>3</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45">
+        <v>3</v>
+      </c>
+      <c r="S40" s="45">
+        <v>2</v>
+      </c>
+      <c r="T40" s="44"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M41" s="44"/>
+      <c r="N41" s="45">
+        <v>4</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="P41" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45">
+        <v>4</v>
+      </c>
+      <c r="S41" s="45">
+        <v>3</v>
+      </c>
+      <c r="T41" s="44"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M42" s="44"/>
+      <c r="N42" s="45">
+        <v>5</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45">
+        <v>5</v>
+      </c>
+      <c r="S42" s="45">
+        <v>4</v>
+      </c>
+      <c r="T42" s="44"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M43" s="44"/>
+      <c r="N43" s="45">
+        <v>6</v>
+      </c>
+      <c r="O43" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P43" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45">
+        <v>6</v>
+      </c>
+      <c r="S43" s="45">
+        <v>4</v>
+      </c>
+      <c r="T43" s="44"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="22">
+        <v>1</v>
+      </c>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="22">
+        <v>3</v>
+      </c>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="36">
+        <v>3</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="37">
+        <v>1</v>
+      </c>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>4</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="17">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="R51" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="F52" s="17">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="1">
+        <v>4</v>
+      </c>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="45">
+        <v>1</v>
+      </c>
+      <c r="R52" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="45">
+        <v>2</v>
+      </c>
+      <c r="R53" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="39">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="45">
+        <v>3</v>
+      </c>
+      <c r="R54" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="39">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="45">
+        <v>4</v>
+      </c>
+      <c r="R55" s="45"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="39">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="1"/>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2</v>
+      </c>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="39">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="F59" s="17">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="R59" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="S59" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="T59" s="44"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C60" s="38"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="45">
+        <v>3</v>
+      </c>
+      <c r="R60" s="45">
+        <v>1</v>
+      </c>
+      <c r="S60" s="45">
+        <v>1</v>
+      </c>
+      <c r="T60" s="44"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C61" s="38"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="45">
+        <v>3</v>
+      </c>
+      <c r="R61" s="45">
+        <v>2</v>
+      </c>
+      <c r="S61" s="45">
+        <v>1</v>
+      </c>
+      <c r="T61" s="44"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>135</v>
+      </c>
+      <c r="I73" t="s">
+        <v>170</v>
+      </c>
+      <c r="N73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="1">
+        <v>8</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="17">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>2</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="1">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="17">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>3</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>3</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="17">
+        <v>1</v>
+      </c>
+      <c r="L77" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>4</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="17">
+        <v>2</v>
+      </c>
+      <c r="L78" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1">
+        <v>5</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1">
+        <v>3</v>
+      </c>
+      <c r="L79" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I80" s="40"/>
+      <c r="L80" s="40"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="35">
+        <v>4</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>3</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="17">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="17">
+        <v>6</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
+        <v>7</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="17">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
+        <v>11</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="40">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1823,5 +3432,6 @@
     <hyperlink ref="F19" r:id="rId3" xr:uid="{31FCBD62-A80B-4895-833E-81D02764508F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
--- a/UnidadI/AnalisisYoutube.xlsx
+++ b/UnidadI/AnalisisYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-II\RepositorioEjercicios\IS501-II2018\UnidadI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1B25243-3EE3-44DF-9AC3-3B1DEAC634F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40094D73-3A31-4A17-A1D6-9D74DC755AF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8025" xr2:uid="{F960FD7F-ACE6-4209-8276-878074B9528B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
   <si>
     <t>Nombre del video</t>
   </si>
@@ -553,6 +553,30 @@
   </si>
   <si>
     <t>Me encanta</t>
+  </si>
+  <si>
+    <t>Youtubers</t>
+  </si>
+  <si>
+    <t>Cantidad Canales</t>
+  </si>
+  <si>
+    <t>Cantidad Vistas</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>Usuario Premium</t>
+  </si>
+  <si>
+    <t>tarjeta_credito</t>
+  </si>
+  <si>
+    <t>fecha_vencimiento</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB269C-9DF7-4E42-8884-6F102A8A1AB1}">
   <dimension ref="A3:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80:M80"/>
+    <sheetView tabSelected="1" topLeftCell="G79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1424,7 @@
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.140625" bestFit="1" customWidth="1"/>
@@ -3162,7 +3186,7 @@
       <c r="I80" s="40"/>
       <c r="L80" s="40"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -3170,7 +3194,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>106</v>
       </c>
@@ -3187,7 +3211,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -3204,7 +3228,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -3220,8 +3244,11 @@
       <c r="F84" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -3237,8 +3264,20 @@
       <c r="F85" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -3254,13 +3293,53 @@
       <c r="F86" s="35" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>5</v>
+      </c>
+      <c r="K86" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I87" s="1">
+        <v>5</v>
+      </c>
+      <c r="J87" s="1">
+        <v>12</v>
+      </c>
+      <c r="K87" s="1">
+        <v>45454545</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
@@ -3273,8 +3352,17 @@
       <c r="D92" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I92" s="1">
+        <v>5</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -3288,7 +3376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -3302,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -3316,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>4</v>
       </c>

--- a/UnidadI/AnalisisYoutube.xlsx
+++ b/UnidadI/AnalisisYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-II\RepositorioEjercicios\IS501-II2018\UnidadI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40094D73-3A31-4A17-A1D6-9D74DC755AF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D284B13E-564B-4A52-AE5A-02E71D5E446C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8025" xr2:uid="{F960FD7F-ACE6-4209-8276-878074B9528B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="196">
   <si>
     <t>Nombre del video</t>
   </si>
@@ -577,6 +577,42 @@
   </si>
   <si>
     <t>..</t>
+  </si>
+  <si>
+    <t>Historial</t>
+  </si>
+  <si>
+    <t>Codigo Historial</t>
+  </si>
+  <si>
+    <t>Seccion</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Secciones</t>
+  </si>
+  <si>
+    <t>Codigo Seccion</t>
+  </si>
+  <si>
+    <t>Detalle evaluaciones</t>
+  </si>
+  <si>
+    <t>Tipo Evaluacion</t>
+  </si>
+  <si>
+    <t>Tipo Evaluaciones</t>
+  </si>
+  <si>
+    <t>Codigo Tipo Evaluacion</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB269C-9DF7-4E42-8884-6F102A8A1AB1}">
-  <dimension ref="A3:T103"/>
+  <dimension ref="A3:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="V39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2263,7 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="21">
         <v>2</v>
       </c>
@@ -2253,7 +2289,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="21">
         <v>3</v>
       </c>
@@ -2279,7 +2315,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="21">
         <v>4</v>
       </c>
@@ -2301,7 +2337,7 @@
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
         <v>5</v>
       </c>
@@ -2324,8 +2360,11 @@
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23">
         <v>6</v>
       </c>
@@ -2358,8 +2397,15 @@
         <v>141</v>
       </c>
       <c r="T37" s="44"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G38" s="21">
         <v>4</v>
       </c>
@@ -2382,8 +2428,17 @@
       </c>
       <c r="S38" s="45"/>
       <c r="T38" s="44"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G39" s="21">
         <v>4</v>
       </c>
@@ -2408,8 +2463,17 @@
         <v>1</v>
       </c>
       <c r="T39" s="44"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W39" s="1">
+        <v>2</v>
+      </c>
+      <c r="X39" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="23">
         <v>5</v>
       </c>
@@ -2434,8 +2498,17 @@
         <v>2</v>
       </c>
       <c r="T40" s="44"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W40" s="1">
+        <v>4</v>
+      </c>
+      <c r="X40" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M41" s="44"/>
       <c r="N41" s="45">
         <v>4</v>
@@ -2454,8 +2527,17 @@
         <v>3</v>
       </c>
       <c r="T41" s="44"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W41" s="1">
+        <v>5</v>
+      </c>
+      <c r="X41" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M42" s="44"/>
       <c r="N42" s="45">
         <v>5</v>
@@ -2475,7 +2557,7 @@
       </c>
       <c r="T42" s="44"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M43" s="44"/>
       <c r="N43" s="45">
         <v>6</v>
@@ -2494,8 +2576,11 @@
         <v>4</v>
       </c>
       <c r="T43" s="44"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2507,8 +2592,17 @@
       <c r="R44" s="44"/>
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>87</v>
       </c>
@@ -2529,8 +2623,17 @@
       <c r="R45" s="44"/>
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1</v>
       </c>
@@ -2549,8 +2652,17 @@
       <c r="R46" s="44"/>
       <c r="S46" s="44"/>
       <c r="T46" s="44"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W46" s="1">
+        <v>2</v>
+      </c>
+      <c r="X46" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>2</v>
       </c>
@@ -2569,8 +2681,17 @@
       <c r="R47" s="44"/>
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W47" s="1">
+        <v>3</v>
+      </c>
+      <c r="X47" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>3</v>
       </c>
@@ -2589,8 +2710,17 @@
       <c r="R48" s="44"/>
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W48" s="1">
+        <v>4</v>
+      </c>
+      <c r="X48" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>4</v>
       </c>
@@ -2613,7 +2743,7 @@
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>92</v>
       </c>
@@ -2634,7 +2764,7 @@
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F51" s="1">
         <v>3</v>
       </c>
@@ -2656,8 +2786,11 @@
       </c>
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2683,8 +2816,17 @@
       </c>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>92</v>
       </c>
@@ -2709,8 +2851,17 @@
       </c>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -2733,8 +2884,17 @@
       </c>
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -2755,8 +2915,17 @@
       <c r="R55" s="45"/>
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>3</v>
       </c>
@@ -2781,7 +2950,7 @@
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>4</v>
       </c>
@@ -2806,7 +2975,7 @@
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>5</v>
       </c>
@@ -2832,8 +3001,11 @@
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>6</v>
       </c>
@@ -2869,8 +3041,14 @@
         <v>169</v>
       </c>
       <c r="T59" s="44"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W59" t="s">
+        <v>193</v>
+      </c>
+      <c r="X59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C60" s="38"/>
       <c r="M60" s="44"/>
       <c r="N60" s="44"/>
@@ -2886,8 +3064,14 @@
         <v>1</v>
       </c>
       <c r="T60" s="44"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C61" s="38"/>
       <c r="M61" s="44"/>
       <c r="N61" s="44"/>
@@ -2903,8 +3087,14 @@
         <v>1</v>
       </c>
       <c r="T61" s="44"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>2</v>
+      </c>
+      <c r="X61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
       <c r="O62" s="44"/>
@@ -2914,7 +3104,7 @@
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
       <c r="O63" s="44"/>
@@ -2924,7 +3114,7 @@
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
       <c r="O64" s="44"/>
